--- a/Tag_1/Tag_1.xlsx
+++ b/Tag_1/Tag_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AdventOfCode\Tag_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD18C2B3-776A-4788-A2CF-5FB449363C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A209A674-A735-44FE-B0A5-80431895B74C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection sqref="A1:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2544,7 +2544,7 @@
         <v>148523</v>
       </c>
       <c r="B97">
-        <f t="shared" ref="B97:B128" si="7">A97/$I$3</f>
+        <f t="shared" ref="B97:B100" si="7">A97/$I$3</f>
         <v>49507.666666666664</v>
       </c>
       <c r="C97">
@@ -2616,7 +2616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -2970,7 +2970,7 @@
         <v>1383</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" ref="M3:M34" si="19">L4-$D$1</f>
+        <f t="shared" ref="M4:M34" si="19">L4-$D$1</f>
         <v>1381</v>
       </c>
       <c r="N4" s="4">
@@ -2986,7 +2986,7 @@
         <v>458</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" ref="Q3:Q34" si="21">P4/$B$1</f>
+        <f t="shared" ref="Q4:Q34" si="21">P4/$B$1</f>
         <v>152.66666666666666</v>
       </c>
       <c r="R4" s="4">
@@ -13646,7 +13646,7 @@
         <v>148523</v>
       </c>
       <c r="B99">
-        <f t="shared" ref="B99:B130" si="72">A99/$B$1</f>
+        <f t="shared" ref="B99:B102" si="72">A99/$B$1</f>
         <v>49507.666666666664</v>
       </c>
       <c r="C99">
@@ -13654,11 +13654,11 @@
         <v>49507</v>
       </c>
       <c r="D99" s="3">
-        <f t="shared" ref="D99:D130" si="73">C99-$D$1</f>
+        <f t="shared" ref="D99:D102" si="73">C99-$D$1</f>
         <v>49505</v>
       </c>
       <c r="E99">
-        <f t="shared" ref="E99:E130" si="74">D99/$B$1</f>
+        <f t="shared" ref="E99:E102" si="74">D99/$B$1</f>
         <v>16501.666666666668</v>
       </c>
       <c r="F99">
@@ -13666,11 +13666,11 @@
         <v>16501</v>
       </c>
       <c r="G99" s="3">
-        <f t="shared" ref="G99:G130" si="75">F99-$D$1</f>
+        <f t="shared" ref="G99:G102" si="75">F99-$D$1</f>
         <v>16499</v>
       </c>
       <c r="H99">
-        <f t="shared" ref="H99:H130" si="76">G99/$B$1</f>
+        <f t="shared" ref="H99:H102" si="76">G99/$B$1</f>
         <v>5499.666666666667</v>
       </c>
       <c r="I99">
@@ -13678,11 +13678,11 @@
         <v>5499</v>
       </c>
       <c r="J99" s="3">
-        <f t="shared" ref="J99:J130" si="77">I99-$D$1</f>
+        <f t="shared" ref="J99:J102" si="77">I99-$D$1</f>
         <v>5497</v>
       </c>
       <c r="K99" s="4">
-        <f t="shared" ref="K99:K130" si="78">J99/$B$1</f>
+        <f t="shared" ref="K99:K102" si="78">J99/$B$1</f>
         <v>1832.3333333333333</v>
       </c>
       <c r="L99" s="4">
@@ -13690,11 +13690,11 @@
         <v>1832</v>
       </c>
       <c r="M99" s="5">
-        <f t="shared" ref="M99:M130" si="79">L99-$D$1</f>
+        <f t="shared" ref="M99:M102" si="79">L99-$D$1</f>
         <v>1830</v>
       </c>
       <c r="N99" s="4">
-        <f t="shared" ref="N99:N130" si="80">M99/$B$1</f>
+        <f t="shared" ref="N99:N102" si="80">M99/$B$1</f>
         <v>610</v>
       </c>
       <c r="O99" s="4">
@@ -13702,11 +13702,11 @@
         <v>610</v>
       </c>
       <c r="P99" s="5">
-        <f t="shared" ref="P99:P130" si="81">O99-$D$1</f>
+        <f t="shared" ref="P99:P102" si="81">O99-$D$1</f>
         <v>608</v>
       </c>
       <c r="Q99" s="4">
-        <f t="shared" ref="Q99:Q130" si="82">P99/$B$1</f>
+        <f t="shared" ref="Q99:Q102" si="82">P99/$B$1</f>
         <v>202.66666666666666</v>
       </c>
       <c r="R99" s="4">
@@ -13714,11 +13714,11 @@
         <v>202</v>
       </c>
       <c r="S99" s="5">
-        <f t="shared" ref="S99:S130" si="83">R99-$D$1</f>
+        <f t="shared" ref="S99:S102" si="83">R99-$D$1</f>
         <v>200</v>
       </c>
       <c r="T99" s="4">
-        <f t="shared" ref="T99:T130" si="84">S99/$B$1</f>
+        <f t="shared" ref="T99:T102" si="84">S99/$B$1</f>
         <v>66.666666666666671</v>
       </c>
       <c r="U99" s="4">
@@ -13726,11 +13726,11 @@
         <v>66</v>
       </c>
       <c r="V99" s="5">
-        <f t="shared" ref="V99:V130" si="85">U99-$D$1</f>
+        <f t="shared" ref="V99:V102" si="85">U99-$D$1</f>
         <v>64</v>
       </c>
       <c r="W99" s="4">
-        <f t="shared" ref="W99:W130" si="86">V99/$B$1</f>
+        <f t="shared" ref="W99:W102" si="86">V99/$B$1</f>
         <v>21.333333333333332</v>
       </c>
       <c r="X99" s="4">
@@ -13738,11 +13738,11 @@
         <v>21</v>
       </c>
       <c r="Y99" s="5">
-        <f t="shared" ref="Y99:Y130" si="87">X99-$D$1</f>
+        <f t="shared" ref="Y99:Y102" si="87">X99-$D$1</f>
         <v>19</v>
       </c>
       <c r="Z99" s="4">
-        <f t="shared" ref="Z99:Z130" si="88">Y99/$B$1</f>
+        <f t="shared" ref="Z99:Z102" si="88">Y99/$B$1</f>
         <v>6.333333333333333</v>
       </c>
       <c r="AA99" s="4">
